--- a/biology/Histoire de la zoologie et de la botanique/Joachim_Barrande/Joachim_Barrande.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joachim_Barrande/Joachim_Barrande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joachim Barrande (11 août 1799 – 5 octobre 1883) est un géologue et paléontologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joachim Barrande naît à Saugues, dans le département de la Haute-Loire. Il étudie à l'École polytechnique (Major de la promotion X 1819) à Paris. Bien qu'il ait reçu une formation d'ingénieur, il devient précepteur d'Henri d'Artois, le petit-fils de Charles X. Quand celui-ci abdique, Barrande l'accompagne dans son exil en Angleterre et en Écosse, puis plus tard à Prague.
 Il s'installe dans cette ville en 1831 et travaille dans l'ingénierie. Il s'intéresse alors aux fossiles du Paléozoïque ancien de Bohême à l'occasion de la construction de voies de chemin de fer.
@@ -547,9 +561,11 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Connu et admiré pour l'importance de son œuvre par les Tchèques, la France l'a reconnu tardivement en érigeant en 1966 à Saugues une stèle de granit commémorative[1] et en donnant son nom au collège de son village natal[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connu et admiré pour l'importance de son œuvre par les Tchèques, la France l'a reconnu tardivement en érigeant en 1966 à Saugues une stèle de granit commémorative et en donnant son nom au collège de son village natal.
 Un quartier au sud de Prague, Barrandov, porte son nom. Son nom a, plus tard, été rendu encore plus célèbre par les Studios Barrandov, situés dans ce quartier et où ont été tournés la grande majorité des films du cinéma tchèque.
 Sur les autres projets Wikimedia :
 Joachim Barrande, sur Wikimedia Commons
@@ -581,7 +597,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « Joachim Barrande », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).</t>
         </is>
